--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H2">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I2">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J2">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N2">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q2">
-        <v>3.826812738714</v>
+        <v>14.68028614502311</v>
       </c>
       <c r="R2">
-        <v>34.441314648426</v>
+        <v>132.122575305208</v>
       </c>
       <c r="S2">
-        <v>0.1179739433702967</v>
+        <v>0.2433066132200575</v>
       </c>
       <c r="T2">
-        <v>0.1179739433702967</v>
+        <v>0.2433066132200574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H3">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I3">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J3">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.325559</v>
       </c>
       <c r="O3">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P3">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q3">
-        <v>5.906887977550443</v>
+        <v>12.59184247665644</v>
       </c>
       <c r="R3">
-        <v>53.16199179795399</v>
+        <v>113.326582289908</v>
       </c>
       <c r="S3">
-        <v>0.1820990247859376</v>
+        <v>0.2086933808326606</v>
       </c>
       <c r="T3">
-        <v>0.1820990247859376</v>
+        <v>0.2086933808326606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H4">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I4">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J4">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N4">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q4">
-        <v>0.8546817277608888</v>
+        <v>2.919741608874666</v>
       </c>
       <c r="R4">
-        <v>7.692135549848</v>
+        <v>26.277674479872</v>
       </c>
       <c r="S4">
-        <v>0.02634834276849784</v>
+        <v>0.04839091250096735</v>
       </c>
       <c r="T4">
-        <v>0.02634834276849785</v>
+        <v>0.04839091250096735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.434937333333333</v>
+      </c>
+      <c r="H5">
+        <v>4.304812</v>
+      </c>
+      <c r="I5">
+        <v>0.5010808920723563</v>
+      </c>
+      <c r="J5">
+        <v>0.5010808920723562</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.6731353333333333</v>
-      </c>
-      <c r="H5">
-        <v>2.019406</v>
-      </c>
-      <c r="I5">
-        <v>0.3272865828458516</v>
-      </c>
-      <c r="J5">
-        <v>0.3272865828458517</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N5">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q5">
-        <v>0.02806749961555555</v>
+        <v>0.04163135853955556</v>
       </c>
       <c r="R5">
-        <v>0.25260749654</v>
+        <v>0.374682226856</v>
       </c>
       <c r="S5">
-        <v>0.0008652719211194313</v>
+        <v>0.0006899855186707762</v>
       </c>
       <c r="T5">
-        <v>0.0008652719211194316</v>
+        <v>0.0006899855186707761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H6">
         <v>2.989327</v>
       </c>
       <c r="I6">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J6">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N6">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q6">
-        <v>5.664831462213001</v>
+        <v>10.19421422841311</v>
       </c>
       <c r="R6">
-        <v>50.983483159917</v>
+        <v>91.74792805571801</v>
       </c>
       <c r="S6">
-        <v>0.1746368457919304</v>
+        <v>0.1689558169270284</v>
       </c>
       <c r="T6">
-        <v>0.1746368457919304</v>
+        <v>0.1689558169270283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H7">
         <v>2.989327</v>
       </c>
       <c r="I7">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J7">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.325559</v>
       </c>
       <c r="O7">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P7">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q7">
         <v>8.743967145421443</v>
@@ -883,10 +883,10 @@
         <v>78.695704308793</v>
       </c>
       <c r="S7">
-        <v>0.2695612132806738</v>
+        <v>0.1449198613189972</v>
       </c>
       <c r="T7">
-        <v>0.269561213280674</v>
+        <v>0.1449198613189972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H8">
         <v>2.989327</v>
       </c>
       <c r="I8">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J8">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N8">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q8">
-        <v>1.265185487812889</v>
+        <v>2.027513030634667</v>
       </c>
       <c r="R8">
-        <v>11.386669390316</v>
+        <v>18.247617275712</v>
       </c>
       <c r="S8">
-        <v>0.03900345569099297</v>
+        <v>0.03360338646467703</v>
       </c>
       <c r="T8">
-        <v>0.03900345569099298</v>
+        <v>0.03360338646467702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H9">
         <v>2.989327</v>
       </c>
       <c r="I9">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J9">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N9">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O9">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P9">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q9">
-        <v>0.04154832382555555</v>
+        <v>0.02890944926955556</v>
       </c>
       <c r="R9">
-        <v>0.37393491443</v>
+        <v>0.260185043426</v>
       </c>
       <c r="S9">
-        <v>0.001280862152605363</v>
+        <v>0.0004791364502262946</v>
       </c>
       <c r="T9">
-        <v>0.001280862152605364</v>
+        <v>0.0004791364502262944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H10">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I10">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J10">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N10">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O10">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P10">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q10">
-        <v>2.200899701847</v>
+        <v>4.422737612049112</v>
       </c>
       <c r="R10">
-        <v>19.808097316623</v>
+        <v>39.804638508442</v>
       </c>
       <c r="S10">
-        <v>0.06784988827978446</v>
+        <v>0.07330111272479831</v>
       </c>
       <c r="T10">
-        <v>0.06784988827978447</v>
+        <v>0.07330111272479828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H11">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I11">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J11">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.325559</v>
       </c>
       <c r="O11">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P11">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q11">
-        <v>3.397205161651888</v>
+        <v>3.793551077707444</v>
       </c>
       <c r="R11">
-        <v>30.574846454867</v>
+        <v>34.141959699367</v>
       </c>
       <c r="S11">
-        <v>0.1047298931832975</v>
+        <v>0.06287316580046433</v>
       </c>
       <c r="T11">
-        <v>0.1047298931832976</v>
+        <v>0.06287316580046431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H12">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I12">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J12">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N12">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q12">
-        <v>0.4915497277337778</v>
+        <v>0.8796321068586666</v>
       </c>
       <c r="R12">
-        <v>4.423947549604001</v>
+        <v>7.916688961727999</v>
       </c>
       <c r="S12">
-        <v>0.0151536183510346</v>
+        <v>0.0145787559373945</v>
       </c>
       <c r="T12">
-        <v>0.01515361835103461</v>
+        <v>0.01457875593739449</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H13">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I13">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J13">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N13">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O13">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P13">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q13">
-        <v>0.01614235024111111</v>
+        <v>0.01254230152155556</v>
       </c>
       <c r="R13">
-        <v>0.14528115217</v>
+        <v>0.112880713694</v>
       </c>
       <c r="S13">
-        <v>0.000497640423829127</v>
+        <v>0.0002078723040578479</v>
       </c>
       <c r="T13">
-        <v>0.0004976404238291272</v>
+        <v>0.0002078723040578479</v>
       </c>
     </row>
   </sheetData>
